--- a/BalanceSheet/ALXN_bal.xlsx
+++ b/BalanceSheet/ALXN_bal.xlsx
@@ -507,19 +507,19 @@
         <v>803900000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>105300000.0</v>
+        <v>776000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4800000.0</v>
+        <v>729000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-52400000.0</v>
+        <v>578000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>37300000.0</v>
+        <v>587000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-51000000.0</v>
+        <v>628000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>576700000.0</v>
@@ -2149,22 +2149,22 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1036000000.0</v>
+        <v>125300000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>98800000.0</v>
+        <v>119000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>112200000.0</v>
+        <v>89000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-20300000.0</v>
+        <v>862000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-68200000.0</v>
+        <v>863000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>23600000.0</v>
+        <v>967000000.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>868200000.0</v>
@@ -2275,10 +2275,8 @@
           <t>Accrued Expenses</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>910700000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1084700000.0</v>
@@ -3491,19 +3489,19 @@
         <v>1639100000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-109200000.0</v>
+        <v>-567000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>52400000.0</v>
+        <v>-452000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-275600000.0</v>
+        <v>-386000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>49000000.0</v>
+        <v>-110000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>-319300000.0</v>
+        <v>-209000000.0</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>314700000.0</v>
@@ -4003,10 +4001,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>9243300000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>9152900000.0</v>
@@ -4293,10 +4289,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>5879200000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>5243000000.0</v>
@@ -4422,10 +4416,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>2620500000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2620300000.0</v>
@@ -4552,7 +4544,7 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>14200000.0</v>
+        <v>12431000000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>11651000000.0</v>
@@ -4932,10 +4924,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>220900000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>219500000.0</v>
@@ -5188,10 +5178,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B37" s="0" t="n">
+        <v>-937300000.0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>-229000000.0</v>
@@ -5317,10 +5305,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B38" s="0" t="n">
+        <v>2532000000.0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2840000000.0</v>
